--- a/design_documents/REST_endpoints.xlsx
+++ b/design_documents/REST_endpoints.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basti/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basti/programming/20180505_AWT-project/design_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A4670E-5468-8845-B501-29B2A3306EB6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A0E8B-EA5D-2643-A57F-B4F4DD98DC50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="460" windowWidth="38400" windowHeight="23540" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Peak" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
   <si>
     <t>Peak</t>
   </si>
@@ -184,12 +184,24 @@
   <si>
     <t>/api/peaks/{id}</t>
   </si>
+  <si>
+    <t>Implemented</t>
+  </si>
+  <si>
+    <t>Exception Handling?</t>
+  </si>
+  <si>
+    <t>Tested?</t>
+  </si>
+  <si>
+    <t>❓</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -298,6 +310,23 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF70AD47"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color theme="7"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="7"/>
       <name val="Calibri (Body)_x0000_"/>
     </font>
   </fonts>
@@ -367,14 +396,11 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -405,6 +431,16 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -726,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097E9F5-4F31-E042-98F4-27E9ABD694D5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -739,13 +775,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="19">
       <c r="A2" s="3" t="s">
@@ -763,72 +799,72 @@
       <c r="E2" s="1"/>
     </row>
     <row r="3" spans="1:5" ht="38">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>41</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="31">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="38">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="21">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="54">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E7" s="1"/>
@@ -859,13 +895,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="19">
       <c r="A2" s="3" t="s">
@@ -882,73 +918,73 @@
       </c>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" ht="57">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:5" ht="38">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" ht="31">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" ht="38">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" ht="21">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" ht="38">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="5"/>
       <c r="E7" s="1"/>
     </row>
   </sheetData>
@@ -977,12 +1013,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
     </row>
     <row r="2" spans="1:4" ht="19">
       <c r="A2" s="3" t="s">
@@ -999,68 +1035,68 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="57">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="31">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="38">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4" ht="38">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="14" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="14"/>
+      <c r="D6" s="13"/>
     </row>
     <row r="7" spans="1:4" ht="38">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="14" t="s">
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>38</v>
       </c>
     </row>
@@ -1078,10 +1114,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1090,17 +1126,19 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="34">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="34">
+      <c r="A1" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-    </row>
-    <row r="2" spans="1:4" ht="19">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1113,74 +1151,115 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="38">
-      <c r="A3" s="7" t="s">
+      <c r="E2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="38">
-      <c r="A4" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="38">
+      <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="31">
-      <c r="A5" s="11" t="s">
+      <c r="E4" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31">
+      <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="21">
-      <c r="A6" s="12" t="s">
+      <c r="E5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="6"/>
-    </row>
-    <row r="7" spans="1:4" ht="31">
-      <c r="A7" s="13" t="s">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="31">
+      <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>31</v>
       </c>
+    </row>
+    <row r="11" spans="1:7" ht="31">
+      <c r="D11" s="17"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/design_documents/REST_endpoints.xlsx
+++ b/design_documents/REST_endpoints.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basti/programming/20180505_AWT-project/design_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B18A0E8B-EA5D-2643-A57F-B4F4DD98DC50}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CF108-1D89-8649-8602-8C9A44C4545E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="3" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Peak" sheetId="1" r:id="rId1"/>
-    <sheet name="Annotation" sheetId="2" r:id="rId2"/>
-    <sheet name="Campaign" sheetId="3" r:id="rId3"/>
-    <sheet name="User" sheetId="4" r:id="rId4"/>
+    <sheet name="User" sheetId="4" r:id="rId1"/>
+    <sheet name="Campaign" sheetId="3" r:id="rId2"/>
+    <sheet name="Peak" sheetId="1" r:id="rId3"/>
+    <sheet name="Annotation" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
   <si>
     <t>Peak</t>
   </si>
@@ -162,9 +162,6 @@
 /api/campaigns/{id}</t>
   </si>
   <si>
-    <t>Setting the status of individual to 'Started' or 'Closed'</t>
-  </si>
-  <si>
     <t>/api/campaigns/{id}</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>❓</t>
+  </si>
+  <si>
+    <t>Setting the status of individual campaign to 'Started' or 'Closed'</t>
   </si>
 </sst>
 </file>
@@ -431,9 +431,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,6 +438,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="60% - Accent1" xfId="5" builtinId="32"/>
@@ -759,8 +759,169 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097E9F5-4F31-E042-98F4-27E9ABD694D5}">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901EE1C3-6C16-C14B-AE26-07043AA5D943}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="34">
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="38">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="38">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="31">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="21">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" ht="31">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="31">
+      <c r="D11" s="16"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D14910-369C-3A46-A075-F0371AB76CD6}">
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
@@ -772,18 +933,19 @@
     <col min="2" max="2" width="16.1640625" customWidth="1"/>
     <col min="3" max="3" width="41.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
+    <col min="6" max="6" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="4"/>
-    </row>
-    <row r="2" spans="1:5" ht="19">
+    <row r="1" spans="1:7" ht="34">
+      <c r="A1" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -796,78 +958,90 @@
       <c r="D2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="38">
+      <c r="E2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="57">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="31">
+      <c r="C3" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="31">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="38">
+      <c r="C4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="38">
       <c r="A5" s="10" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" ht="21">
+      <c r="C5" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:7" ht="38">
       <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" ht="54">
+      <c r="C6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13"/>
+    </row>
+    <row r="7" spans="1:7" ht="38">
       <c r="A7" s="12" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="C7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -878,7 +1052,127 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097E9F5-4F31-E042-98F4-27E9ABD694D5}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="34">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5" ht="19">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="38">
+      <c r="A3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="31">
+      <c r="A4" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="38">
+      <c r="A5" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="21">
+      <c r="A6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="54">
+      <c r="A7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFD7C238-BC9A-7040-9D17-81DC4BA9C80B}">
   <dimension ref="A1:E7"/>
   <sheetViews>
@@ -895,12 +1189,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="34">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5" ht="19">
@@ -929,7 +1223,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -944,7 +1238,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -994,278 +1288,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D14910-369C-3A46-A075-F0371AB76CD6}">
-  <dimension ref="A1:D7"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="34">
-      <c r="A1" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:4" ht="19">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="57">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="31">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="38">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4" ht="38">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="13"/>
-    </row>
-    <row r="7" spans="1:4" ht="38">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901EE1C3-6C16-C14B-AE26-07043AA5D943}">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:G11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
-  <cols>
-    <col min="1" max="1" width="16" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
-    <col min="5" max="5" width="14.83203125" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="34">
-      <c r="A1" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-    </row>
-    <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="38">
-      <c r="A3" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="38">
-      <c r="A4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="31">
-      <c r="A5" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="21">
-      <c r="A6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" ht="31">
-      <c r="A7" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="31">
-      <c r="D11" s="17"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/design_documents/REST_endpoints.xlsx
+++ b/design_documents/REST_endpoints.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Basti/programming/20180505_AWT-project/design_documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{451CF108-1D89-8649-8602-8C9A44C4545E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D6FDFAE-F7B3-A343-8EB6-8C2BE2915FAB}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="23540" activeTab="2" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
+    <workbookView xWindow="6400" yWindow="4460" windowWidth="25600" windowHeight="15540" activeTab="1" xr2:uid="{81F218F0-8C45-8549-AC2E-3C5F18E451E9}"/>
   </bookViews>
   <sheets>
     <sheet name="User" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="47">
   <si>
     <t>Peak</t>
   </si>
@@ -152,12 +152,6 @@
     <t>Getting information for a single user and signing in</t>
   </si>
   <si>
-    <t>Creating new campaigns</t>
-  </si>
-  <si>
-    <t>/api/campaigns</t>
-  </si>
-  <si>
     <t>/api/campaigns
 /api/campaigns/{id}</t>
   </si>
@@ -195,6 +189,10 @@
   </si>
   <si>
     <t>Setting the status of individual campaign to 'Started' or 'Closed'</t>
+  </si>
+  <si>
+    <t>Creating new campaigns
+Enroll in a campaign (as a worker)</t>
   </si>
 </sst>
 </file>
@@ -801,13 +799,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="38">
@@ -896,7 +894,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>29</v>
@@ -923,8 +921,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D14910-369C-3A46-A075-F0371AB76CD6}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -959,13 +957,13 @@
         <v>26</v>
       </c>
       <c r="E2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="57">
@@ -979,13 +977,13 @@
         <v>21</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="31">
+    <row r="4" spans="1:7" ht="57">
       <c r="A4" s="9" t="s">
         <v>2</v>
       </c>
@@ -993,10 +991,10 @@
         <v>6</v>
       </c>
       <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>6</v>
@@ -1034,10 +1032,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>6</v>
@@ -1056,8 +1054,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1097E9F5-4F31-E042-98F4-27E9ABD694D5}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1103,7 +1101,7 @@
         <v>12</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1118,7 +1116,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1159,7 +1157,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1223,7 +1221,7 @@
         <v>20</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1238,7 +1236,7 @@
         <v>16</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="1"/>
     </row>
